--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7444DA5E-8B3F-4B1F-B9E9-B0E5D64AD991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7757FEFB-CC5E-4C0C-B1A5-CBAF0AFE7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -427,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1785,6 +1803,1332 @@
         <v>9</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>45476</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>45477</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>45478</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>45479</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>45480</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>45486</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>45501</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>45506</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>45507</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>45508</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>45509</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>45510</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>45513</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>45518</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>45529</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>45532</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>45545</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>45557</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>45560</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>45563</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>45570</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>45571</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>45578</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>45582</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>45587</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>45590</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
+        <v>45601</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>45602</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>45606</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>45614</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
+        <v>45624</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
+        <v>45628</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
+        <v>45629</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
+        <v>45630</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
+        <v>45631</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
+        <v>45635</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>45640</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>45644</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
+        <v>45648</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
+        <v>45650</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
+        <v>45654</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7757FEFB-CC5E-4C0C-B1A5-CBAF0AFE7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6FCD3-977B-4FB0-8F3E-3BBDBF2ABD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -180,6 +200,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}" name="BudgetData" displayName="BudgetData" ref="A1:E157" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:E157" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7C0C160E-DB49-41A0-B00C-D3401A98E424}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E7C4ACD7-8FA1-40A4-BEB7-701D5BFD6B12}" name="Month" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{090FC26F-BBFC-4723-A3F3-98DADF04C5D2}" name="Category" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{326064FA-168B-466A-8380-D114012850C5}" name="Amount" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{27A63C31-0E7F-447E-8992-78CEB2D2C2DA}" name="Type" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:XFD145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3131,5 +3165,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6FCD3-977B-4FB0-8F3E-3BBDBF2ABD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C579C91-9CFE-491D-8B63-DD4B5AC7EA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,6 +171,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -186,7 +187,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -203,14 +203,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}" name="BudgetData" displayName="BudgetData" ref="A1:E157" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}" name="BudgetData" displayName="BudgetData" ref="A1:E157" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A1:E157" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7C0C160E-DB49-41A0-B00C-D3401A98E424}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E7C4ACD7-8FA1-40A4-BEB7-701D5BFD6B12}" name="Month" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{090FC26F-BBFC-4723-A3F3-98DADF04C5D2}" name="Category" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{326064FA-168B-466A-8380-D114012850C5}" name="Amount" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{27A63C31-0E7F-447E-8992-78CEB2D2C2DA}" name="Type" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7C0C160E-DB49-41A0-B00C-D3401A98E424}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E7C4ACD7-8FA1-40A4-BEB7-701D5BFD6B12}" name="Month" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{090FC26F-BBFC-4723-A3F3-98DADF04C5D2}" name="Category" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{326064FA-168B-466A-8380-D114012850C5}" name="Amount" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{27A63C31-0E7F-447E-8992-78CEB2D2C2DA}" name="Type" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,12 +482,12 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="4" width="17.1796875" customWidth="1"/>
@@ -495,7 +495,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C579C91-9CFE-491D-8B63-DD4B5AC7EA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFFD570-94B1-4BD2-95C3-14D7D5A5DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,6 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="[$₦-46A]#,##0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -165,13 +168,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="171" formatCode="[$₦-46A]#,##0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -181,6 +188,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -203,14 +211,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}" name="BudgetData" displayName="BudgetData" ref="A1:E157" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}" name="BudgetData" displayName="BudgetData" ref="A1:E157" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E157" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7C0C160E-DB49-41A0-B00C-D3401A98E424}" name="Date" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{E7C4ACD7-8FA1-40A4-BEB7-701D5BFD6B12}" name="Month" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{090FC26F-BBFC-4723-A3F3-98DADF04C5D2}" name="Category" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{326064FA-168B-466A-8380-D114012850C5}" name="Amount" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{27A63C31-0E7F-447E-8992-78CEB2D2C2DA}" name="Type" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7C0C160E-DB49-41A0-B00C-D3401A98E424}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E7C4ACD7-8FA1-40A4-BEB7-701D5BFD6B12}" name="Month" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{090FC26F-BBFC-4723-A3F3-98DADF04C5D2}" name="Category" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{326064FA-168B-466A-8380-D114012850C5}" name="Amount" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{27A63C31-0E7F-447E-8992-78CEB2D2C2DA}" name="Type" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,7 +490,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +498,7 @@
     <col min="1" max="1" width="17.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,7 +512,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -521,7 +529,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>250000</v>
       </c>
       <c r="E2" t="s">
@@ -538,7 +546,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>50000</v>
       </c>
       <c r="E3" t="s">
@@ -555,7 +563,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>28000</v>
       </c>
       <c r="E4" t="s">
@@ -572,7 +580,7 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>8000</v>
       </c>
       <c r="E5" t="s">
@@ -589,7 +597,7 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>7000</v>
       </c>
       <c r="E6" t="s">
@@ -606,7 +614,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>5000</v>
       </c>
       <c r="E7" t="s">
@@ -623,7 +631,7 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>10000</v>
       </c>
       <c r="E8" t="s">
@@ -640,7 +648,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>40000</v>
       </c>
       <c r="E9" t="s">
@@ -657,7 +665,7 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>6000</v>
       </c>
       <c r="E10" t="s">
@@ -674,7 +682,7 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>9500</v>
       </c>
       <c r="E11" t="s">
@@ -691,7 +699,7 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>5000</v>
       </c>
       <c r="E12" t="s">
@@ -708,7 +716,7 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>12000</v>
       </c>
       <c r="E13" t="s">
@@ -725,7 +733,7 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>4000</v>
       </c>
       <c r="E14" t="s">
@@ -742,7 +750,7 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>250000</v>
       </c>
       <c r="E15" t="s">
@@ -759,7 +767,7 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>50000</v>
       </c>
       <c r="E16" t="s">
@@ -776,7 +784,7 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>30000</v>
       </c>
       <c r="E17" t="s">
@@ -793,7 +801,7 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>8500</v>
       </c>
       <c r="E18" t="s">
@@ -810,7 +818,7 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>7000</v>
       </c>
       <c r="E19" t="s">
@@ -827,7 +835,7 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>4500</v>
       </c>
       <c r="E20" t="s">
@@ -844,7 +852,7 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>10000</v>
       </c>
       <c r="E21" t="s">
@@ -861,7 +869,7 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>35000</v>
       </c>
       <c r="E22" t="s">
@@ -878,7 +886,7 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>7500</v>
       </c>
       <c r="E23" t="s">
@@ -895,7 +903,7 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>9000</v>
       </c>
       <c r="E24" t="s">
@@ -912,7 +920,7 @@
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>6000</v>
       </c>
       <c r="E25" t="s">
@@ -929,7 +937,7 @@
       <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>14000</v>
       </c>
       <c r="E26" t="s">
@@ -946,7 +954,7 @@
       <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>3000</v>
       </c>
       <c r="E27" t="s">
@@ -963,7 +971,7 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>250000</v>
       </c>
       <c r="E28" t="s">
@@ -980,7 +988,7 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>50000</v>
       </c>
       <c r="E29" t="s">
@@ -997,7 +1005,7 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>31000</v>
       </c>
       <c r="E30" t="s">
@@ -1014,7 +1022,7 @@
       <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>7500</v>
       </c>
       <c r="E31" t="s">
@@ -1031,7 +1039,7 @@
       <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>7000</v>
       </c>
       <c r="E32" t="s">
@@ -1048,7 +1056,7 @@
       <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>5000</v>
       </c>
       <c r="E33" t="s">
@@ -1065,7 +1073,7 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>10000</v>
       </c>
       <c r="E34" t="s">
@@ -1082,7 +1090,7 @@
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>30000</v>
       </c>
       <c r="E35" t="s">
@@ -1099,7 +1107,7 @@
       <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>8000</v>
       </c>
       <c r="E36" t="s">
@@ -1116,7 +1124,7 @@
       <c r="C37" t="s">
         <v>17</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>9500</v>
       </c>
       <c r="E37" t="s">
@@ -1133,7 +1141,7 @@
       <c r="C38" t="s">
         <v>18</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>4000</v>
       </c>
       <c r="E38" t="s">
@@ -1150,7 +1158,7 @@
       <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>16000</v>
       </c>
       <c r="E39" t="s">
@@ -1167,7 +1175,7 @@
       <c r="C40" t="s">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>5000</v>
       </c>
       <c r="E40" t="s">
@@ -1184,7 +1192,7 @@
       <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>250000</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -1201,7 +1209,7 @@
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="5">
         <v>50000</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -1218,7 +1226,7 @@
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="5">
         <v>29500</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -1235,7 +1243,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>7000</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -1252,7 +1260,7 @@
       <c r="C45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>7000</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -1269,7 +1277,7 @@
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>4500</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -1286,7 +1294,7 @@
       <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>10000</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -1303,7 +1311,7 @@
       <c r="C48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <v>37000</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -1320,7 +1328,7 @@
       <c r="C49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>8500</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -1337,7 +1345,7 @@
       <c r="C50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="5">
         <v>9200</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -1354,7 +1362,7 @@
       <c r="C51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="5">
         <v>6500</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -1371,7 +1379,7 @@
       <c r="C52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="5">
         <v>18000</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -1388,7 +1396,7 @@
       <c r="C53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="5">
         <v>3500</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -1405,7 +1413,7 @@
       <c r="C54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="5">
         <v>250000</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -1422,7 +1430,7 @@
       <c r="C55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="5">
         <v>50000</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -1439,7 +1447,7 @@
       <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="5">
         <v>32000</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -1456,7 +1464,7 @@
       <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="5">
         <v>8000</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -1473,7 +1481,7 @@
       <c r="C58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="5">
         <v>7000</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -1490,7 +1498,7 @@
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="5">
         <v>5000</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -1507,7 +1515,7 @@
       <c r="C60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="5">
         <v>10000</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -1524,7 +1532,7 @@
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="5">
         <v>42000</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -1541,7 +1549,7 @@
       <c r="C62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="5">
         <v>9000</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -1558,7 +1566,7 @@
       <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="5">
         <v>9700</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -1575,7 +1583,7 @@
       <c r="C64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="5">
         <v>5000</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -1592,7 +1600,7 @@
       <c r="C65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="5">
         <v>15000</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -1609,7 +1617,7 @@
       <c r="C66" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="5">
         <v>4000</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -1626,7 +1634,7 @@
       <c r="C67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="5">
         <v>250000</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -1643,7 +1651,7 @@
       <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="5">
         <v>50000</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -1660,7 +1668,7 @@
       <c r="C69" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="5">
         <v>31000</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -1677,7 +1685,7 @@
       <c r="C70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="5">
         <v>8500</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -1694,7 +1702,7 @@
       <c r="C71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="5">
         <v>7000</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -1711,7 +1719,7 @@
       <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="5">
         <v>5000</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -1728,7 +1736,7 @@
       <c r="C73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="5">
         <v>10000</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -1745,7 +1753,7 @@
       <c r="C74" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="5">
         <v>30000</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -1762,7 +1770,7 @@
       <c r="C75" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="5">
         <v>6500</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -1779,7 +1787,7 @@
       <c r="C76" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="5">
         <v>9000</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -1796,7 +1804,7 @@
       <c r="C77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="5">
         <v>6000</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -1813,7 +1821,7 @@
       <c r="C78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="5">
         <v>14000</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -1830,7 +1838,7 @@
       <c r="C79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="5">
         <v>3000</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -1847,7 +1855,7 @@
       <c r="C80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="5">
         <v>250000</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -1864,7 +1872,7 @@
       <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="5">
         <v>50000</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -1881,7 +1889,7 @@
       <c r="C82" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="5">
         <v>32500</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -1898,7 +1906,7 @@
       <c r="C83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="5">
         <v>7500</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -1915,7 +1923,7 @@
       <c r="C84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="5">
         <v>7000</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -1932,7 +1940,7 @@
       <c r="C85" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="5">
         <v>5000</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -1949,7 +1957,7 @@
       <c r="C86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="5">
         <v>10000</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -1966,7 +1974,7 @@
       <c r="C87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="5">
         <v>36000</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -1983,7 +1991,7 @@
       <c r="C88" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="5">
         <v>7200</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -2000,7 +2008,7 @@
       <c r="C89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="5">
         <v>9400</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -2017,7 +2025,7 @@
       <c r="C90" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="5">
         <v>5500</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -2034,7 +2042,7 @@
       <c r="C91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="5">
         <v>17500</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -2051,7 +2059,7 @@
       <c r="C92" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="5">
         <v>4500</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -2068,7 +2076,7 @@
       <c r="C93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="5">
         <v>250000</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -2085,7 +2093,7 @@
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="5">
         <v>50000</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -2102,7 +2110,7 @@
       <c r="C95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="5">
         <v>30500</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -2119,7 +2127,7 @@
       <c r="C96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="5">
         <v>7800</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -2136,7 +2144,7 @@
       <c r="C97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="5">
         <v>7000</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -2153,7 +2161,7 @@
       <c r="C98" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="5">
         <v>4500</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -2170,7 +2178,7 @@
       <c r="C99" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="5">
         <v>10000</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -2187,7 +2195,7 @@
       <c r="C100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="5">
         <v>41000</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -2204,7 +2212,7 @@
       <c r="C101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="5">
         <v>8800</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -2221,7 +2229,7 @@
       <c r="C102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="5">
         <v>9500</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -2238,7 +2246,7 @@
       <c r="C103" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="5">
         <v>6200</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -2255,7 +2263,7 @@
       <c r="C104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="5">
         <v>16000</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -2272,7 +2280,7 @@
       <c r="C105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="5">
         <v>3500</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -2289,7 +2297,7 @@
       <c r="C106" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="5">
         <v>250000</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -2306,7 +2314,7 @@
       <c r="C107" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="5">
         <v>50000</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -2323,7 +2331,7 @@
       <c r="C108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="5">
         <v>30000</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -2340,7 +2348,7 @@
       <c r="C109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="5">
         <v>8500</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -2357,7 +2365,7 @@
       <c r="C110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="5">
         <v>7000</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -2374,7 +2382,7 @@
       <c r="C111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="5">
         <v>5000</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -2391,7 +2399,7 @@
       <c r="C112" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="5">
         <v>10000</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -2408,7 +2416,7 @@
       <c r="C113" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="5">
         <v>35000</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -2425,7 +2433,7 @@
       <c r="C114" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="5">
         <v>7500</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -2442,7 +2450,7 @@
       <c r="C115" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="5">
         <v>9300</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -2459,7 +2467,7 @@
       <c r="C116" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="5">
         <v>2000</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -2476,7 +2484,7 @@
       <c r="C117" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="5">
         <v>17000</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -2493,7 +2501,7 @@
       <c r="C118" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="5">
         <v>4000</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -2510,7 +2518,7 @@
       <c r="C119" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="5">
         <v>250000</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -2527,7 +2535,7 @@
       <c r="C120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="5">
         <v>50000</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -2544,7 +2552,7 @@
       <c r="C121" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="5">
         <v>31000</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -2561,7 +2569,7 @@
       <c r="C122" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="5">
         <v>7900</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -2578,7 +2586,7 @@
       <c r="C123" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="5">
         <v>7000</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -2595,7 +2603,7 @@
       <c r="C124" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="5">
         <v>5000</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -2612,7 +2620,7 @@
       <c r="C125" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="5">
         <v>10000</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -2629,7 +2637,7 @@
       <c r="C126" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="5">
         <v>37000</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -2646,7 +2654,7 @@
       <c r="C127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="5">
         <v>8900</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -2663,7 +2671,7 @@
       <c r="C128" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="5">
         <v>9200</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -2680,7 +2688,7 @@
       <c r="C129" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="5">
         <v>0</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -2697,7 +2705,7 @@
       <c r="C130" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="5">
         <v>16000</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -2714,7 +2722,7 @@
       <c r="C131" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="5">
         <v>3500</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -2731,7 +2739,7 @@
       <c r="C132" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="5">
         <v>250000</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -2748,7 +2756,7 @@
       <c r="C133" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="5">
         <v>50000</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -2765,7 +2773,7 @@
       <c r="C134" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="5">
         <v>29500</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -2782,7 +2790,7 @@
       <c r="C135" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="5">
         <v>8200</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -2799,7 +2807,7 @@
       <c r="C136" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="5">
         <v>7000</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -2816,7 +2824,7 @@
       <c r="C137" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="5">
         <v>5000</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -2833,7 +2841,7 @@
       <c r="C138" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="5">
         <v>10000</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -2850,7 +2858,7 @@
       <c r="C139" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="5">
         <v>39000</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -2867,7 +2875,7 @@
       <c r="C140" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="5">
         <v>7600</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -2884,7 +2892,7 @@
       <c r="C141" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="5">
         <v>9600</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -2901,7 +2909,7 @@
       <c r="C142" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="5">
         <v>3000</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -2918,7 +2926,7 @@
       <c r="C143" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="5">
         <v>15000</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -2935,7 +2943,7 @@
       <c r="C144" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="5">
         <v>5000</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -2952,7 +2960,7 @@
       <c r="C145" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="5">
         <v>250000</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -2969,7 +2977,7 @@
       <c r="C146" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="5">
         <v>50000</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -2986,7 +2994,7 @@
       <c r="C147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="5">
         <v>33000</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -3003,7 +3011,7 @@
       <c r="C148" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="5">
         <v>7800</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -3020,7 +3028,7 @@
       <c r="C149" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="5">
         <v>7000</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -3037,7 +3045,7 @@
       <c r="C150" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="5">
         <v>5000</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -3054,7 +3062,7 @@
       <c r="C151" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="5">
         <v>10000</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -3071,7 +3079,7 @@
       <c r="C152" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="5">
         <v>45000</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -3088,7 +3096,7 @@
       <c r="C153" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="5">
         <v>11000</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -3105,7 +3113,7 @@
       <c r="C154" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="5">
         <v>9500</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -3122,7 +3130,7 @@
       <c r="C155" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="5">
         <v>1000</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -3139,7 +3147,7 @@
       <c r="C156" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="5">
         <v>22000</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -3156,7 +3164,7 @@
       <c r="C157" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="5">
         <v>6000</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -3165,8 +3173,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFFD570-94B1-4BD2-95C3-14D7D5A5DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA5E8CC-95B0-401E-B5E5-2EF4C3D647C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -489,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3178,4 +3179,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA5E8CC-95B0-401E-B5E5-2EF4C3D647C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844619F7-05CE-40E3-BB73-D47B877BD416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Income</t>
   </si>
   <si>
-    <t>Rent (Saving)</t>
-  </si>
-  <si>
     <t>Expense</t>
   </si>
   <si>
@@ -122,6 +119,24 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Dining</t>
+  </si>
+  <si>
+    <t>Total Income</t>
+  </si>
+  <si>
+    <t>Total Expense</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent </t>
   </si>
 </sst>
 </file>
@@ -490,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4">
         <v>50000</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -562,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
         <v>28000</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -579,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>8000</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -596,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4">
         <v>7000</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -613,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>5000</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -630,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4">
         <v>10000</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -647,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
         <v>40000</v>
@@ -664,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4">
         <v>6000</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -681,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4">
         <v>9500</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -698,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4">
         <v>5000</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -715,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4">
         <v>12000</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -732,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>4000</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -746,7 +761,7 @@
         <v>45323</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -763,16 +778,16 @@
         <v>45323</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4">
         <v>50000</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -780,16 +795,16 @@
         <v>45324</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4">
         <v>30000</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -797,16 +812,16 @@
         <v>45325</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4">
         <v>8500</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -814,16 +829,16 @@
         <v>45326</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4">
         <v>7000</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -831,16 +846,16 @@
         <v>45327</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4">
         <v>4500</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -848,16 +863,16 @@
         <v>45328</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4">
         <v>10000</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -865,10 +880,10 @@
         <v>45332</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="4">
         <v>35000</v>
@@ -882,16 +897,16 @@
         <v>45336</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="4">
         <v>7500</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -899,16 +914,16 @@
         <v>45340</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="4">
         <v>9000</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -916,16 +931,16 @@
         <v>45344</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4">
         <v>6000</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -933,16 +948,16 @@
         <v>45347</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="4">
         <v>14000</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -950,16 +965,16 @@
         <v>45350</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>3000</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -967,7 +982,7 @@
         <v>45352</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -984,16 +999,16 @@
         <v>45352</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4">
         <v>50000</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1001,16 +1016,16 @@
         <v>45353</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4">
         <v>31000</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1018,16 +1033,16 @@
         <v>45354</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="4">
         <v>7500</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1035,16 +1050,16 @@
         <v>45355</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="4">
         <v>7000</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1052,16 +1067,16 @@
         <v>45356</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="4">
         <v>5000</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1069,16 +1084,16 @@
         <v>45357</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="4">
         <v>10000</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1086,10 +1101,10 @@
         <v>45362</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="4">
         <v>30000</v>
@@ -1103,16 +1118,16 @@
         <v>45366</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="4">
         <v>8000</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1120,16 +1135,16 @@
         <v>45369</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="4">
         <v>9500</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1137,16 +1152,16 @@
         <v>45373</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="4">
         <v>4000</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1154,16 +1169,16 @@
         <v>45376</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="4">
         <v>16000</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1171,16 +1186,16 @@
         <v>45379</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="4">
         <v>5000</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1188,7 +1203,7 @@
         <v>45383</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
@@ -1205,16 +1220,16 @@
         <v>45383</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
       </c>
       <c r="D42" s="5">
         <v>50000</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1222,16 +1237,16 @@
         <v>45384</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="5">
         <v>29500</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1239,16 +1254,16 @@
         <v>45385</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5">
         <v>7000</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1256,16 +1271,16 @@
         <v>45386</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="5">
         <v>7000</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1273,16 +1288,16 @@
         <v>45387</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="5">
         <v>4500</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1290,16 +1305,16 @@
         <v>45388</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5">
         <v>10000</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1307,10 +1322,10 @@
         <v>45391</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="5">
         <v>37000</v>
@@ -1324,16 +1339,16 @@
         <v>45396</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="5">
         <v>8500</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1341,16 +1356,16 @@
         <v>45400</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5">
         <v>9200</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1358,16 +1373,16 @@
         <v>45403</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="5">
         <v>6500</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1375,16 +1390,16 @@
         <v>45407</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="5">
         <v>18000</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1392,16 +1407,16 @@
         <v>45411</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" s="5">
         <v>3500</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1409,7 +1424,7 @@
         <v>45413</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>6</v>
@@ -1426,16 +1441,16 @@
         <v>45413</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
       </c>
       <c r="D55" s="5">
         <v>50000</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1443,16 +1458,16 @@
         <v>45414</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="5">
         <v>32000</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -1460,16 +1475,16 @@
         <v>45415</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5">
         <v>8000</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1477,16 +1492,16 @@
         <v>45416</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" s="5">
         <v>7000</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1494,16 +1509,16 @@
         <v>45417</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="5">
         <v>5000</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1511,16 +1526,16 @@
         <v>45418</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="5">
         <v>10000</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1528,10 +1543,10 @@
         <v>45422</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="5">
         <v>42000</v>
@@ -1545,16 +1560,16 @@
         <v>45426</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="5">
         <v>9000</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -1562,16 +1577,16 @@
         <v>45430</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" s="5">
         <v>9700</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -1579,16 +1594,16 @@
         <v>45434</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="5">
         <v>5000</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1596,16 +1611,16 @@
         <v>45437</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" s="5">
         <v>15000</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -1613,16 +1628,16 @@
         <v>45440</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" s="5">
         <v>4000</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -1630,7 +1645,7 @@
         <v>45444</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>6</v>
@@ -1647,16 +1662,16 @@
         <v>45444</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
       </c>
       <c r="D68" s="5">
         <v>50000</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -1664,16 +1679,16 @@
         <v>45446</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="5">
         <v>31000</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -1681,16 +1696,16 @@
         <v>45447</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="5">
         <v>8500</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -1698,16 +1713,16 @@
         <v>45448</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="5">
         <v>7000</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -1715,16 +1730,16 @@
         <v>45449</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="5">
         <v>5000</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -1732,16 +1747,16 @@
         <v>45450</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" s="5">
         <v>10000</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -1749,10 +1764,10 @@
         <v>45454</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="5">
         <v>30000</v>
@@ -1766,16 +1781,16 @@
         <v>45458</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" s="5">
         <v>6500</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -1783,16 +1798,16 @@
         <v>45462</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" s="5">
         <v>9000</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -1800,16 +1815,16 @@
         <v>45465</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" s="5">
         <v>6000</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -1817,16 +1832,16 @@
         <v>45469</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" s="5">
         <v>14000</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -1834,16 +1849,16 @@
         <v>45472</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79" s="5">
         <v>3000</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -1851,7 +1866,7 @@
         <v>45474</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>6</v>
@@ -1868,16 +1883,16 @@
         <v>45474</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
       </c>
       <c r="D81" s="5">
         <v>50000</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -1885,16 +1900,16 @@
         <v>45476</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="5">
         <v>32500</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -1902,16 +1917,16 @@
         <v>45477</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="5">
         <v>7500</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -1919,16 +1934,16 @@
         <v>45478</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="5">
         <v>7000</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -1936,16 +1951,16 @@
         <v>45479</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="5">
         <v>5000</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -1953,16 +1968,16 @@
         <v>45480</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="5">
         <v>10000</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -1970,10 +1985,10 @@
         <v>45483</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" s="5">
         <v>36000</v>
@@ -1987,16 +2002,16 @@
         <v>45486</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="5">
         <v>7200</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2004,16 +2019,16 @@
         <v>45491</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89" s="5">
         <v>9400</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2021,16 +2036,16 @@
         <v>45495</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D90" s="5">
         <v>5500</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2038,16 +2053,16 @@
         <v>45498</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" s="5">
         <v>17500</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2055,16 +2070,16 @@
         <v>45501</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92" s="5">
         <v>4500</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2072,7 +2087,7 @@
         <v>45505</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>6</v>
@@ -2089,16 +2104,16 @@
         <v>45505</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
       </c>
       <c r="D94" s="5">
         <v>50000</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2106,16 +2121,16 @@
         <v>45506</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="5">
         <v>30500</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2123,16 +2138,16 @@
         <v>45507</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="5">
         <v>7800</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2140,16 +2155,16 @@
         <v>45508</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="5">
         <v>7000</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2157,16 +2172,16 @@
         <v>45509</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" s="5">
         <v>4500</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2174,16 +2189,16 @@
         <v>45510</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" s="5">
         <v>10000</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2191,10 +2206,10 @@
         <v>45513</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" s="5">
         <v>41000</v>
@@ -2208,16 +2223,16 @@
         <v>45518</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" s="5">
         <v>8800</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2225,16 +2240,16 @@
         <v>45523</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102" s="5">
         <v>9500</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -2242,16 +2257,16 @@
         <v>45526</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D103" s="5">
         <v>6200</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -2259,16 +2274,16 @@
         <v>45529</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" s="5">
         <v>16000</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -2276,16 +2291,16 @@
         <v>45532</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105" s="5">
         <v>3500</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -2293,7 +2308,7 @@
         <v>45536</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>6</v>
@@ -2310,16 +2325,16 @@
         <v>45536</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C107" t="s">
+        <v>36</v>
       </c>
       <c r="D107" s="5">
         <v>50000</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2327,16 +2342,16 @@
         <v>45537</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" s="5">
         <v>30000</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2344,16 +2359,16 @@
         <v>45538</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="5">
         <v>8500</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -2361,16 +2376,16 @@
         <v>45539</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" s="5">
         <v>7000</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -2378,16 +2393,16 @@
         <v>45540</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111" s="5">
         <v>5000</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -2395,16 +2410,16 @@
         <v>45541</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" s="5">
         <v>10000</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -2412,10 +2427,10 @@
         <v>45545</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="5">
         <v>35000</v>
@@ -2429,16 +2444,16 @@
         <v>45548</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" s="5">
         <v>7500</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -2446,16 +2461,16 @@
         <v>45553</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115" s="5">
         <v>9300</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -2463,16 +2478,16 @@
         <v>45557</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D116" s="5">
         <v>2000</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -2480,16 +2495,16 @@
         <v>45560</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D117" s="5">
         <v>17000</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -2497,16 +2512,16 @@
         <v>45563</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118" s="5">
         <v>4000</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -2514,7 +2529,7 @@
         <v>45566</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>6</v>
@@ -2531,16 +2546,16 @@
         <v>45566</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>36</v>
       </c>
       <c r="D120" s="5">
         <v>50000</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -2548,16 +2563,16 @@
         <v>45567</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121" s="5">
         <v>31000</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -2565,16 +2580,16 @@
         <v>45568</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" s="5">
         <v>7900</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -2582,16 +2597,16 @@
         <v>45569</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" s="5">
         <v>7000</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -2599,16 +2614,16 @@
         <v>45570</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124" s="5">
         <v>5000</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -2616,16 +2631,16 @@
         <v>45571</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="5">
         <v>10000</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -2633,10 +2648,10 @@
         <v>45575</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126" s="5">
         <v>37000</v>
@@ -2650,16 +2665,16 @@
         <v>45578</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" s="5">
         <v>8900</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -2667,16 +2682,16 @@
         <v>45582</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D128" s="5">
         <v>9200</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -2684,16 +2699,16 @@
         <v>45587</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D129" s="5">
         <v>0</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -2701,16 +2716,16 @@
         <v>45590</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D130" s="5">
         <v>16000</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -2718,16 +2733,16 @@
         <v>45593</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D131" s="5">
         <v>3500</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -2735,7 +2750,7 @@
         <v>45597</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>6</v>
@@ -2752,16 +2767,16 @@
         <v>45597</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C133" t="s">
+        <v>36</v>
       </c>
       <c r="D133" s="5">
         <v>50000</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -2769,16 +2784,16 @@
         <v>45598</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="5">
         <v>29500</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -2786,16 +2801,16 @@
         <v>45599</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" s="5">
         <v>8200</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -2803,16 +2818,16 @@
         <v>45600</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D136" s="5">
         <v>7000</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -2820,16 +2835,16 @@
         <v>45601</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" s="5">
         <v>5000</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -2837,16 +2852,16 @@
         <v>45602</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138" s="5">
         <v>10000</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -2854,10 +2869,10 @@
         <v>45606</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" s="5">
         <v>39000</v>
@@ -2871,16 +2886,16 @@
         <v>45611</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" s="5">
         <v>7600</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -2888,16 +2903,16 @@
         <v>45614</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141" s="5">
         <v>9600</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -2905,16 +2920,16 @@
         <v>45618</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142" s="5">
         <v>3000</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -2922,16 +2937,16 @@
         <v>45621</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D143" s="5">
         <v>15000</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -2939,16 +2954,16 @@
         <v>45624</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" s="5">
         <v>5000</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -2956,7 +2971,7 @@
         <v>45627</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>6</v>
@@ -2973,16 +2988,16 @@
         <v>45627</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C146" t="s">
+        <v>36</v>
       </c>
       <c r="D146" s="5">
         <v>50000</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -2990,16 +3005,16 @@
         <v>45628</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D147" s="5">
         <v>33000</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -3007,16 +3022,16 @@
         <v>45629</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" s="5">
         <v>7800</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -3024,16 +3039,16 @@
         <v>45630</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" s="5">
         <v>7000</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -3041,16 +3056,16 @@
         <v>45631</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D150" s="5">
         <v>5000</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -3058,16 +3073,16 @@
         <v>45632</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D151" s="5">
         <v>10000</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -3075,10 +3090,10 @@
         <v>45635</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152" s="5">
         <v>45000</v>
@@ -3092,16 +3107,16 @@
         <v>45640</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" s="5">
         <v>11000</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -3109,16 +3124,16 @@
         <v>45644</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154" s="5">
         <v>9500</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -3126,16 +3141,16 @@
         <v>45648</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155" s="5">
         <v>1000</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -3143,16 +3158,16 @@
         <v>45650</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156" s="5">
         <v>22000</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -3160,16 +3175,16 @@
         <v>45654</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157" s="5">
         <v>6000</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3183,12 +3198,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844619F7-05CE-40E3-BB73-D47B877BD416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A7DD52-0FAC-4ECF-8D03-64161A8B1209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -122,18 +122,6 @@
   </si>
   <si>
     <t>Rent</t>
-  </si>
-  <si>
-    <t>Dining</t>
-  </si>
-  <si>
-    <t>Total Income</t>
-  </si>
-  <si>
-    <t>Total Expense</t>
-  </si>
-  <si>
-    <t>Savings</t>
   </si>
   <si>
     <t xml:space="preserve">Rent </t>
@@ -505,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C157"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4">
         <v>50000</v>
@@ -1002,7 +990,7 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4">
         <v>50000</v>
@@ -1223,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D42" s="5">
         <v>50000</v>
@@ -1444,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D55" s="5">
         <v>50000</v>
@@ -1665,7 +1653,7 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D68" s="5">
         <v>50000</v>
@@ -1886,7 +1874,7 @@
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D81" s="5">
         <v>50000</v>
@@ -2107,7 +2095,7 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D94" s="5">
         <v>50000</v>
@@ -2328,7 +2316,7 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D107" s="5">
         <v>50000</v>
@@ -2549,7 +2537,7 @@
         <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D120" s="5">
         <v>50000</v>
@@ -2770,7 +2758,7 @@
         <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D133" s="5">
         <v>50000</v>
@@ -2991,7 +2979,7 @@
         <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D146" s="5">
         <v>50000</v>
@@ -3198,10 +3186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3211,7 +3199,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -3221,47 +3209,57 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A7DD52-0FAC-4ECF-8D03-64161A8B1209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3761C890-E95B-4856-841A-43AA141E0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Rent</t>
+  </si>
+  <si>
+    <t>Total Income</t>
+  </si>
+  <si>
+    <t>Total Expense</t>
+  </si>
+  <si>
+    <t>Savings</t>
   </si>
   <si>
     <t xml:space="preserve">Rent </t>
@@ -769,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
         <v>50000</v>
@@ -990,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4">
         <v>50000</v>
@@ -1211,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D42" s="5">
         <v>50000</v>
@@ -1432,7 +1441,7 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D55" s="5">
         <v>50000</v>
@@ -1653,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D68" s="5">
         <v>50000</v>
@@ -1874,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D81" s="5">
         <v>50000</v>
@@ -2095,7 +2104,7 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D94" s="5">
         <v>50000</v>
@@ -2316,7 +2325,7 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D107" s="5">
         <v>50000</v>
@@ -2537,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D120" s="5">
         <v>50000</v>
@@ -2758,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D133" s="5">
         <v>50000</v>
@@ -2979,7 +2988,7 @@
         <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D146" s="5">
         <v>50000</v>
@@ -3186,10 +3195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3262,6 +3271,21 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3761C890-E95B-4856-841A-43AA141E0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A0E870-EE15-4380-B969-C8236EE5C141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t xml:space="preserve">Rent </t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Jun</t>
   </si>
 </sst>
 </file>
@@ -3195,10 +3210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3206,83 +3221,103 @@
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A0E870-EE15-4380-B969-C8236EE5C141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5D2FE3-73AC-464B-AAD3-505772696F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -3210,10 +3222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3221,7 +3233,7 @@
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -3240,78 +3252,90 @@
       <c r="G1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5D2FE3-73AC-464B-AAD3-505772696F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3ADAB-AE43-45A8-AAE7-EF1B1A23771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -3222,10 +3228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3233,7 +3239,7 @@
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -3264,78 +3270,84 @@
       <c r="K1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3ADAB-AE43-45A8-AAE7-EF1B1A23771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F5473-B21E-46DE-8A14-12BD0DF68BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +177,33 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Personal Budget Summary</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Savings (Income - Expenses)</t>
+  </si>
+  <si>
+    <t>Monthly Breakdown</t>
+  </si>
+  <si>
+    <t>Select Month [Dropdown]</t>
+  </si>
+  <si>
+    <t>Income This Month</t>
+  </si>
+  <si>
+    <t>Expenses This Month</t>
+  </si>
+  <si>
+    <t>Savings This Month</t>
+  </si>
+  <si>
+    <t>Category-Wise Breakdown</t>
   </si>
 </sst>
 </file>
@@ -174,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$₦-46A]#,##0"/>
+    <numFmt numFmtId="164" formatCode="[$₦-46A]#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -205,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -214,9 +251,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -224,7 +264,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="171" formatCode="[$₦-46A]#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$₦-46A]#,##0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -235,9 +278,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -260,11 +300,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}" name="BudgetData" displayName="BudgetData" ref="A1:E157" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E157" xr:uid="{4C5A4A68-4FCF-4D9E-AD48-4FC12A6F1FDE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7C0C160E-DB49-41A0-B00C-D3401A98E424}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E7C4ACD7-8FA1-40A4-BEB7-701D5BFD6B12}" name="Month" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7C0C160E-DB49-41A0-B00C-D3401A98E424}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E7C4ACD7-8FA1-40A4-BEB7-701D5BFD6B12}" name="Month" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{090FC26F-BBFC-4723-A3F3-98DADF04C5D2}" name="Category" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{326064FA-168B-466A-8380-D114012850C5}" name="Amount" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{27A63C31-0E7F-447E-8992-78CEB2D2C2DA}" name="Type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{326064FA-168B-466A-8380-D114012850C5}" name="Amount" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{27A63C31-0E7F-447E-8992-78CEB2D2C2DA}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -536,7 +576,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3230,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3279,7 +3319,11 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Category], $A2, BudgetData[Month], B$1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -3355,6 +3399,74 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F5473-B21E-46DE-8A14-12BD0DF68BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3082B676-3A78-430A-B66A-DE1A3429BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3408,63 +3408,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3" t="str">
+        <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Type], "Income"), "₦#,##0")</f>
+        <v>₦3,447,000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3082B676-3A78-430A-B66A-DE1A3429BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1355B75C-773A-4590-9700-703B384BA9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -137,46 +136,7 @@
     <t>Total Income</t>
   </si>
   <si>
-    <t>Total Expense</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rent </t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sept</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
   </si>
   <si>
     <t>Personal Budget Summary</t>
@@ -851,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4">
         <v>50000</v>
@@ -1072,7 +1032,7 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4">
         <v>50000</v>
@@ -1293,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D42" s="5">
         <v>50000</v>
@@ -1514,7 +1474,7 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D55" s="5">
         <v>50000</v>
@@ -1735,7 +1695,7 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D68" s="5">
         <v>50000</v>
@@ -1956,7 +1916,7 @@
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D81" s="5">
         <v>50000</v>
@@ -2177,7 +2137,7 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94" s="5">
         <v>50000</v>
@@ -2398,7 +2358,7 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D107" s="5">
         <v>50000</v>
@@ -2619,7 +2579,7 @@
         <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D120" s="5">
         <v>50000</v>
@@ -2840,7 +2800,7 @@
         <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D133" s="5">
         <v>50000</v>
@@ -3061,7 +3021,7 @@
         <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D146" s="5">
         <v>50000</v>
@@ -3267,151 +3227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781D3F-0CE1-495B-BE1B-77E7E5AA81CC}">
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <f>SUMIFS(BudgetData[Amount], BudgetData[Category], $A2, BudgetData[Month], B$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3422,7 +3242,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3436,42 +3256,46 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Type], "Expense")</f>
+        <v>1826300</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1355B75C-773A-4590-9700-703B384BA9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE8AF4B-C988-4E08-8E69-72B15B2C0FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3231,7 +3231,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3258,9 +3258,9 @@
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4">
-        <f>SUMIFS(BudgetData[Amount], BudgetData[Type], "Expense")</f>
-        <v>1826300</v>
+      <c r="B4" t="str">
+        <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Type], "Expense"), "₦#,##0")</f>
+        <v>₦1,826,300</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE8AF4B-C988-4E08-8E69-72B15B2C0FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74411E0-0C63-4A88-BB6C-81A7F5D93AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,10 +173,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₦-46A]#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -217,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3228,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3240,12 +3250,17 @@
     <col min="2" max="2" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -3254,7 +3269,7 @@
         <v>₦3,447,000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -3263,42 +3278,50 @@
         <v>₦1,826,300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="str">
+        <f xml:space="preserve"> TEXT(VALUE(SUBSTITUTE(B3, "₦", "")) - VALUE(SUBSTITUTE(B4, "₦", "")), "₦#,##0")</f>
+        <v>₦1,620,700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74411E0-0C63-4A88-BB6C-81A7F5D93AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC92FD8C-7A5E-42DF-85B8-93350F68FB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -209,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -228,6 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +569,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3241,7 +3264,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3260,6 +3283,12 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="str" cm="1">
+        <f t="array" ref="F2:F13">_xlfn.UNIQUE(BudgetData[Month])</f>
+        <v>January</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
@@ -3268,6 +3297,9 @@
         <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Type], "Income"), "₦#,##0")</f>
         <v>₦3,447,000</v>
       </c>
+      <c r="F3" t="str">
+        <v>February</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3277,6 +3309,9 @@
         <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Type], "Expense"), "₦#,##0")</f>
         <v>₦1,826,300</v>
       </c>
+      <c r="F4" t="str">
+        <v>March</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -3286,30 +3321,64 @@
         <f xml:space="preserve"> TEXT(VALUE(SUBSTITUTE(B3, "₦", "")) - VALUE(SUBSTITUTE(B4, "₦", "")), "₦#,##0")</f>
         <v>₦1,620,700</v>
       </c>
+      <c r="F5" t="str">
+        <v>April</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="str">
+        <v>May</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="F7" t="str">
+        <v>June</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="B8" s="8"/>
+      <c r="F8" t="str">
+        <v>July</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="str">
+        <v>August</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="F10" t="str">
+        <v>September</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="F11" t="str">
+        <v>October</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>41</v>
+      </c>
+      <c r="F12" t="str">
+        <v>November</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" t="str">
+        <v>December</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3321,6 +3390,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{DBE1249F-BC00-4DEF-A782-133CC7C26D42}">
+      <formula1 xml:space="preserve"> _xlfn.UNIQUE(#REF!)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC92FD8C-7A5E-42DF-85B8-93350F68FB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA16EE1-8137-4341-88A0-FFC1C93888F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,7 +581,7 @@
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -614,8 +614,12 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2:G13" xml:space="preserve"> _xlfn.UNIQUE(BudgetData[Month])</f>
+        <v>January</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45292</v>
       </c>
@@ -631,8 +635,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3" t="str">
+        <v>February</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45293</v>
       </c>
@@ -648,8 +655,11 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" t="str">
+        <v>March</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45294</v>
       </c>
@@ -665,8 +675,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G5" t="str">
+        <v>April</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45295</v>
       </c>
@@ -682,8 +695,11 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G6" t="str">
+        <v>May</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45296</v>
       </c>
@@ -699,8 +715,11 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G7" t="str">
+        <v>June</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45297</v>
       </c>
@@ -716,8 +735,11 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G8" t="str">
+        <v>July</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45301</v>
       </c>
@@ -733,8 +755,11 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G9" t="str">
+        <v>August</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45306</v>
       </c>
@@ -750,8 +775,11 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G10" t="str">
+        <v>September</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45311</v>
       </c>
@@ -767,8 +795,11 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G11" t="str">
+        <v>October</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45313</v>
       </c>
@@ -784,8 +815,11 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G12" t="str">
+        <v>November</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45316</v>
       </c>
@@ -801,8 +835,11 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G13" t="str">
+        <v>December</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45319</v>
       </c>
@@ -819,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45323</v>
       </c>
@@ -836,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45323</v>
       </c>
@@ -3263,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3283,12 +3320,6 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2:F13">_xlfn.UNIQUE(BudgetData[Month])</f>
-        <v>January</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
@@ -3297,9 +3328,6 @@
         <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Type], "Income"), "₦#,##0")</f>
         <v>₦3,447,000</v>
       </c>
-      <c r="F3" t="str">
-        <v>February</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3309,9 +3337,6 @@
         <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Type], "Expense"), "₦#,##0")</f>
         <v>₦1,826,300</v>
       </c>
-      <c r="F4" t="str">
-        <v>March</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -3321,64 +3346,31 @@
         <f xml:space="preserve"> TEXT(VALUE(SUBSTITUTE(B3, "₦", "")) - VALUE(SUBSTITUTE(B4, "₦", "")), "₦#,##0")</f>
         <v>₦1,620,700</v>
       </c>
-      <c r="F5" t="str">
-        <v>April</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F6" t="str">
-        <v>May</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="str">
-        <v>June</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="F8" t="str">
-        <v>July</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F9" t="str">
-        <v>August</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="str">
-        <v>September</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="str">
-        <v>October</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="F12" t="str">
-        <v>November</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F13" t="str">
-        <v>December</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3390,12 +3382,19 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{DBE1249F-BC00-4DEF-A782-133CC7C26D42}">
-      <formula1 xml:space="preserve"> _xlfn.UNIQUE(#REF!)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DBE1249F-BC00-4DEF-A782-133CC7C26D42}">
+          <x14:formula1>
+            <xm:f xml:space="preserve"> Monthly_Tracker!$G$2:$G$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA16EE1-8137-4341-88A0-FFC1C93888F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D24666-1F59-4A5C-A289-5410B78D3862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +190,18 @@
   <si>
     <t>Category-Wise Breakdown</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₦-46A]#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +221,13 @@
     <font>
       <sz val="22"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -250,7 +272,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,6 +314,1286 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45784.557431365742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="156" xr:uid="{12350CF7-638B-43ED-9E3B-80B4F32E84B5}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="BudgetData"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-12-29T00:00:00"/>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="12">
+        <s v="January"/>
+        <s v="February"/>
+        <s v="March"/>
+        <s v="April"/>
+        <s v="May"/>
+        <s v="June"/>
+        <s v="July"/>
+        <s v="August"/>
+        <s v="September"/>
+        <s v="October"/>
+        <s v="November"/>
+        <s v="December"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="14">
+        <s v="Salary"/>
+        <s v="Rent"/>
+        <s v="Groceries"/>
+        <s v="Transport"/>
+        <s v="Internet"/>
+        <s v="Subscriptions"/>
+        <s v="Gym Membership"/>
+        <s v="Freelance"/>
+        <s v="Dining Out"/>
+        <s v="Utilities"/>
+        <s v="Medical"/>
+        <s v="Shopping"/>
+        <s v="Other"/>
+        <s v="Rent "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="250000"/>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Income"/>
+        <s v="Expense"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="156">
+  <r>
+    <d v="2024-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="28000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-03T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-04T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-06T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-10T00:00:00"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="40000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-01-15T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="6000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="9500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-25T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="12000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-01-28T00:00:00"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="4000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-01T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-02-01T00:00:00"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-02T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="30000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-03T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="8500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-04T00:00:00"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-05T00:00:00"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-06T00:00:00"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-10T00:00:00"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="35000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-02-14T00:00:00"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="7500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-18T00:00:00"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="9000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-22T00:00:00"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="6000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-25T00:00:00"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="14000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-02-28T00:00:00"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="3000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-03-01T00:00:00"/>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-02T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="31000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-03T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="7500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-04T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-05T00:00:00"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-06T00:00:00"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-11T00:00:00"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="30000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-03-15T00:00:00"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="8000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-18T00:00:00"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="9500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-22T00:00:00"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="4000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-25T00:00:00"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="16000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-03-28T00:00:00"/>
+    <x v="2"/>
+    <x v="12"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-01T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-04-01T00:00:00"/>
+    <x v="3"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-02T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="29500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-03T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-04T00:00:00"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-05T00:00:00"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="4500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-06T00:00:00"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-09T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="37000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-04-14T00:00:00"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="8500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-18T00:00:00"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="9200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-21T00:00:00"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="6500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-25T00:00:00"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="18000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <x v="3"/>
+    <x v="12"/>
+    <n v="3500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-01T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-05-01T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-02T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="32000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-03T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="8000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-04T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-05T00:00:00"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-06T00:00:00"/>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-10T00:00:00"/>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="42000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-05-14T00:00:00"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="9000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-18T00:00:00"/>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="9700"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-22T00:00:00"/>
+    <x v="4"/>
+    <x v="10"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-25T00:00:00"/>
+    <x v="4"/>
+    <x v="11"/>
+    <n v="15000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-05-28T00:00:00"/>
+    <x v="4"/>
+    <x v="12"/>
+    <n v="4000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-01T00:00:00"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-06-01T00:00:00"/>
+    <x v="5"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-03T00:00:00"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="31000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-04T00:00:00"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="8500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-05T00:00:00"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-06T00:00:00"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-07T00:00:00"/>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-11T00:00:00"/>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="30000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-06-15T00:00:00"/>
+    <x v="5"/>
+    <x v="8"/>
+    <n v="6500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-19T00:00:00"/>
+    <x v="5"/>
+    <x v="9"/>
+    <n v="9000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-22T00:00:00"/>
+    <x v="5"/>
+    <x v="10"/>
+    <n v="6000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-26T00:00:00"/>
+    <x v="5"/>
+    <x v="11"/>
+    <n v="14000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-06-29T00:00:00"/>
+    <x v="5"/>
+    <x v="12"/>
+    <n v="3000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-03T00:00:00"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="32500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-04T00:00:00"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="7500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-05T00:00:00"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-06T00:00:00"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-07T00:00:00"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-10T00:00:00"/>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="36000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-07-13T00:00:00"/>
+    <x v="6"/>
+    <x v="8"/>
+    <n v="7200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-18T00:00:00"/>
+    <x v="6"/>
+    <x v="9"/>
+    <n v="9400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-22T00:00:00"/>
+    <x v="6"/>
+    <x v="10"/>
+    <n v="5500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-25T00:00:00"/>
+    <x v="6"/>
+    <x v="11"/>
+    <n v="17500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-07-28T00:00:00"/>
+    <x v="6"/>
+    <x v="12"/>
+    <n v="4500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="7"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-02T00:00:00"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="30500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-03T00:00:00"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="7800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-04T00:00:00"/>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-05T00:00:00"/>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="4500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-06T00:00:00"/>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-09T00:00:00"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="41000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-08-14T00:00:00"/>
+    <x v="7"/>
+    <x v="8"/>
+    <n v="8800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-19T00:00:00"/>
+    <x v="7"/>
+    <x v="9"/>
+    <n v="9500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-22T00:00:00"/>
+    <x v="7"/>
+    <x v="10"/>
+    <n v="6200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-25T00:00:00"/>
+    <x v="7"/>
+    <x v="11"/>
+    <n v="16000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-08-28T00:00:00"/>
+    <x v="7"/>
+    <x v="12"/>
+    <n v="3500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="8"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-02T00:00:00"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="30000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-03T00:00:00"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="8500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-04T00:00:00"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-05T00:00:00"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-06T00:00:00"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-10T00:00:00"/>
+    <x v="8"/>
+    <x v="7"/>
+    <n v="35000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-09-13T00:00:00"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="7500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-18T00:00:00"/>
+    <x v="8"/>
+    <x v="9"/>
+    <n v="9300"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-22T00:00:00"/>
+    <x v="8"/>
+    <x v="10"/>
+    <n v="2000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-25T00:00:00"/>
+    <x v="8"/>
+    <x v="11"/>
+    <n v="17000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-09-28T00:00:00"/>
+    <x v="8"/>
+    <x v="12"/>
+    <n v="4000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="9"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-02T00:00:00"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="31000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-03T00:00:00"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="7900"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-04T00:00:00"/>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-05T00:00:00"/>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-06T00:00:00"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="37000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-10-13T00:00:00"/>
+    <x v="9"/>
+    <x v="8"/>
+    <n v="8900"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-17T00:00:00"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="9200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-22T00:00:00"/>
+    <x v="9"/>
+    <x v="10"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-25T00:00:00"/>
+    <x v="9"/>
+    <x v="11"/>
+    <n v="16000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-10-28T00:00:00"/>
+    <x v="9"/>
+    <x v="12"/>
+    <n v="3500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="10"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-02T00:00:00"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="29500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-03T00:00:00"/>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="8200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-04T00:00:00"/>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-05T00:00:00"/>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-06T00:00:00"/>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-10T00:00:00"/>
+    <x v="10"/>
+    <x v="7"/>
+    <n v="39000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-11-15T00:00:00"/>
+    <x v="10"/>
+    <x v="8"/>
+    <n v="7600"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-18T00:00:00"/>
+    <x v="10"/>
+    <x v="9"/>
+    <n v="9600"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-22T00:00:00"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="3000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-25T00:00:00"/>
+    <x v="10"/>
+    <x v="11"/>
+    <n v="15000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-11-28T00:00:00"/>
+    <x v="10"/>
+    <x v="12"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="11"/>
+    <x v="13"/>
+    <n v="50000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-02T00:00:00"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="33000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-03T00:00:00"/>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="7800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-04T00:00:00"/>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="7000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-05T00:00:00"/>
+    <x v="11"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-06T00:00:00"/>
+    <x v="11"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-09T00:00:00"/>
+    <x v="11"/>
+    <x v="7"/>
+    <n v="45000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2024-12-14T00:00:00"/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="11000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-18T00:00:00"/>
+    <x v="11"/>
+    <x v="9"/>
+    <n v="9500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-22T00:00:00"/>
+    <x v="11"/>
+    <x v="10"/>
+    <n v="1000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-24T00:00:00"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="22000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2024-12-28T00:00:00"/>
+    <x v="11"/>
+    <x v="12"/>
+    <n v="6000"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CCA37C-EEAF-4CE6-ADB9-50B5C2111231}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A18:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A138" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3298,16 +4605,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.65">
@@ -3343,47 +4650,213 @@
         <v>36</v>
       </c>
       <c r="B5" t="str">
-        <f xml:space="preserve"> TEXT(VALUE(SUBSTITUTE(B3, "₦", "")) - VALUE(SUBSTITUTE(B4, "₦", "")), "₦#,##0")</f>
+        <f>TEXT(VALUE(SUBSTITUTE(B3, "₦", "")) - VALUE(SUBSTITUTE(B4, "₦", "")), "₦#,##0")</f>
         <v>₦1,620,700</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="B10" t="str">
+        <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Month], B8, BudgetData[Type], "Income"), "₦#,##0")</f>
+        <v>₦280,000</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="B11" t="str">
+        <f xml:space="preserve"> TEXT(SUMIFS(BudgetData[Amount], BudgetData[Month], B8, BudgetData[Type], "Expense"), "₦#,##0")</f>
+        <v>₦150,000</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="B12" t="str">
+        <f xml:space="preserve"> TEXT(VALUE(SUBSTITUTE(B10, "₦", "")) - VALUE(SUBSTITUTE(B11, "₦", "")), "₦#,##0")</f>
+        <v>₦130,000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>96500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8">
+        <v>447000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8">
+        <v>368000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="8">
+        <v>95200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="8">
+        <v>112400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="8">
+        <v>5273300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D24666-1F59-4A5C-A289-5410B78D3862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB077F6-1BEB-4068-A584-E36F24D7C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -316,6 +316,1130 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Personal_Budget_Tracker.xlsx]Summary!PivotTable2</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$19:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dining Out</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gym Membership</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rent </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Subscriptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$19:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>96500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03E2-460D-8E48-A01995D16056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABCF4AB-1DD7-586B-3A0D-FFE33BD3C0B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45784.557431365742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="156" xr:uid="{12350CF7-638B-43ED-9E3B-80B4F32E84B5}">
   <cacheSource type="worksheet">
@@ -1475,8 +2599,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CCA37C-EEAF-4CE6-ADB9-50B5C2111231}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A18:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CCA37C-EEAF-4CE6-ADB9-50B5C2111231}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A18:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -1527,12 +2651,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="13">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -1556,9 +2677,6 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="10"/>
     </i>
     <i>
@@ -1578,12 +2696,23 @@
     <i/>
   </colItems>
   <pageFields count="2">
-    <pageField fld="4" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
     <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4607,8 +5736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4700,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -4734,120 +5863,110 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20" s="8">
-        <v>447000</v>
+        <v>368000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B21" s="8">
-        <v>368000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8">
-        <v>120000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B23" s="8">
-        <v>84000</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8">
-        <v>50200</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8">
-        <v>49000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
-        <v>50000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B27" s="8">
-        <v>550000</v>
+        <v>192500</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B28" s="8">
-        <v>3000000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B29" s="8">
-        <v>192500</v>
+        <v>95200</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B30" s="8">
-        <v>58500</v>
+        <v>112400</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B31" s="8">
-        <v>95200</v>
+        <v>1826300</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="8">
-        <v>112400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="8">
-        <v>5273300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35"/>
     </row>
   </sheetData>
@@ -4857,6 +5976,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB077F6-1BEB-4068-A584-E36F24D7C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82CDE7-B8B3-4CAA-9A60-D5E24EA9B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
+    <sheet name="Charts" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="26" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -210,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₦-46A]#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +228,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -253,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -276,6 +284,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -316,1132 +327,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Personal_Budget_Tracker.xlsx]Summary!PivotTable2</c:name>
-    <c:fmtId val="4"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$A$19:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Dining Out</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Groceries</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Gym Membership</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Internet</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Medical</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Rent</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Rent </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Shopping</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Subscriptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Transport</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Utilities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$19:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>96500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>368000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>550000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>192500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>112400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-03E2-460D-8E48-A01995D16056}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABCF4AB-1DD7-586B-3A0D-FFE33BD3C0B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45784.557431365742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="156" xr:uid="{12350CF7-638B-43ED-9E3B-80B4F32E84B5}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45784.61699386574" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="156" xr:uid="{0241F901-256D-4D2C-A4BD-14A1D547FD72}">
   <cacheSource type="worksheet">
     <worksheetSource name="BudgetData"/>
   </cacheSource>
@@ -2599,8 +1486,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CCA37C-EEAF-4CE6-ADB9-50B5C2111231}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A18:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -2651,9 +1538,12 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="15">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -2677,6 +1567,9 @@
       <x v="8"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="10"/>
     </i>
     <i>
@@ -2696,23 +1589,12 @@
     <i/>
   </colItems>
   <pageFields count="2">
-    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
     <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3004,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -5736,13 +4618,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5794,7 +4676,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -5803,7 +4685,7 @@
       </c>
       <c r="B10" t="str">
         <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Month], B8, BudgetData[Type], "Income"), "₦#,##0")</f>
-        <v>₦280,000</v>
+        <v>₦290,000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -5812,7 +4694,7 @@
       </c>
       <c r="B11" t="str">
         <f xml:space="preserve"> TEXT(SUMIFS(BudgetData[Amount], BudgetData[Month], B8, BudgetData[Type], "Expense"), "₦#,##0")</f>
-        <v>₦150,000</v>
+        <v>₦144,500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -5821,143 +4703,64 @@
       </c>
       <c r="B12" t="str">
         <f xml:space="preserve"> TEXT(VALUE(SUBSTITUTE(B10, "₦", "")) - VALUE(SUBSTITUTE(B11, "₦", "")), "₦#,##0")</f>
-        <v>₦130,000</v>
-      </c>
+        <v>₦145,500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>96500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="8">
-        <v>368000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="8">
-        <v>50200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="8">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="8">
-        <v>192500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="8">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="8">
-        <v>95200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="8">
-        <v>112400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1826300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
@@ -5975,8 +4778,7 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5990,4 +4792,180 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB3BE5B-0E50-446A-93DC-BE7A34E160B7}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>96500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>447000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>368000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>95200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8">
+        <v>112400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5273300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82CDE7-B8B3-4CAA-9A60-D5E24EA9B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1A744-FF68-44CB-8D66-2A07CFAA1B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -200,9 +200,6 @@
   <si>
     <t>Sum of Amount</t>
   </si>
-  <si>
-    <t>(All)</t>
-  </si>
 </sst>
 </file>
 
@@ -327,6 +324,1107 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Personal_Budget_Tracker.xlsx]Charts!PivotTable7</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Dining Out</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gym Membership</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Subscriptions</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$6:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4468-4232-B240-F280578D1C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F362685-B14A-EF04-80FB-B0BB9138B0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45784.61699386574" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="156" xr:uid="{0241F901-256D-4D2C-A4BD-14A1D547FD72}">
   <cacheSource type="worksheet">
@@ -1486,8 +2584,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A5:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -1538,12 +2636,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="12">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -1562,12 +2657,6 @@
     </i>
     <i>
       <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i>
       <x v="10"/>
@@ -1589,12 +2678,23 @@
     <i/>
   </colItems>
   <pageFields count="2">
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4618,14 +5718,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.65">
@@ -4796,10 +5899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB3BE5B-0E50-446A-93DC-BE7A34E160B7}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4822,7 +5925,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4830,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4846,119 +5949,95 @@
         <v>15</v>
       </c>
       <c r="B6" s="8">
-        <v>96500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8">
-        <v>447000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8">
-        <v>368000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8">
-        <v>120000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8">
-        <v>84000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="8">
-        <v>50200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8">
-        <v>49000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8">
-        <v>50000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
-        <v>550000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8">
-        <v>3000000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8">
-        <v>192500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="8">
-        <v>95200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8">
-        <v>112400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="8">
-        <v>5273300</v>
+        <v>144500</v>
       </c>
     </row>
   </sheetData>
@@ -4967,5 +6046,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1A744-FF68-44CB-8D66-2A07CFAA1B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781FF4E-D63F-4258-A19C-BF14D2E6AC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
-    <sheet name="Charts" sheetId="4" r:id="rId3"/>
+    <sheet name="Pivot Table" sheetId="4" r:id="rId3"/>
+    <sheet name="Dahboard" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -189,9 +190,6 @@
     <t>Savings This Month</t>
   </si>
   <si>
-    <t>Category-Wise Breakdown</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -199,6 +197,9 @@
   </si>
   <si>
     <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>Pivot Tables</t>
   </si>
 </sst>
 </file>
@@ -274,18 +275,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,11 +339,45 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Personal_Budget_Tracker.xlsx]Charts!PivotTable7</c:name>
-    <c:fmtId val="6"/>
+    <c:name>[Personal_Budget_Tracker.xlsx]Pivot Table!PivotTable7</c:name>
+    <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Expense Breakdown by Category</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22659711286089237"/>
+          <c:y val="4.8884514435695546E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -421,16 +456,471 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -442,7 +932,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$B$5</c:f>
+              <c:f>'Pivot Table'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -465,6 +955,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -480,6 +975,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -495,6 +995,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -510,6 +1015,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -525,6 +1035,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -540,6 +1055,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -557,6 +1077,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -574,6 +1099,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -591,6 +1121,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -608,6 +1143,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -625,12 +1165,95 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$A$6:$A$17</c:f>
+              <c:f>'Pivot Table'!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Dining Out</c:v>
                 </c:pt>
@@ -653,15 +1276,18 @@
                   <c:v>Rent</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Rent </c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Shopping</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Subscriptions</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Transport</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Utilities</c:v>
                 </c:pt>
               </c:strCache>
@@ -669,55 +1295,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$6:$B$17</c:f>
+              <c:f>'Pivot Table'!$B$6:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6000</c:v>
+                  <c:v>96500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28000</c:v>
+                  <c:v>368000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7000</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>50200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4000</c:v>
+                  <c:v>49000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12000</c:v>
+                  <c:v>550000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>192500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000</c:v>
+                  <c:v>58500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9500</c:v>
+                  <c:v>95200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4468-4232-B240-F280578D1C0F}"/>
+              <c16:uniqueId val="{00000018-D736-4FCE-B5BD-EB1B0476FFE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -813,7 +1443,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -1388,27 +2017,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F362685-B14A-EF04-80FB-B0BB9138B0DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219B272A-609F-4F75-A7BF-1C3D75063B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2584,11 +3215,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A5:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A5:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -2636,7 +3267,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -2659,6 +3290,9 @@
       <x v="7"/>
     </i>
     <i>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="10"/>
     </i>
     <i>
@@ -2677,19 +3311,465 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="1">
     <pageField fld="4" item="0" hier="-1"/>
-    <pageField fld="1" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="39">
     <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="13"/>
           </reference>
         </references>
       </pivotArea>
@@ -5718,8 +6798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5732,14 +6812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -5769,17 +6849,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>5</v>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -5788,7 +6868,7 @@
       </c>
       <c r="B10" t="str">
         <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Month], B8, BudgetData[Type], "Income"), "₦#,##0")</f>
-        <v>₦290,000</v>
+        <v>₦289,000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -5797,7 +6877,7 @@
       </c>
       <c r="B11" t="str">
         <f xml:space="preserve"> TEXT(SUMIFS(BudgetData[Amount], BudgetData[Month], B8, BudgetData[Type], "Expense"), "₦#,##0")</f>
-        <v>₦144,500</v>
+        <v>₦149,900</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -5806,7 +6886,7 @@
       </c>
       <c r="B12" t="str">
         <f xml:space="preserve"> TEXT(VALUE(SUBSTITUTE(B10, "₦", "")) - VALUE(SUBSTITUTE(B11, "₦", "")), "₦#,##0")</f>
-        <v>₦145,500</v>
+        <v>₦139,100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -5899,10 +6979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB3BE5B-0E50-446A-93DC-BE7A34E160B7}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5912,132 +6992,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8">
-        <v>6000</v>
+      <c r="B6" s="12">
+        <v>96500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
-        <v>28000</v>
+      <c r="B7" s="12">
+        <v>368000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8">
-        <v>10000</v>
+      <c r="B8" s="12">
+        <v>120000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <v>7000</v>
+      <c r="B9" s="12">
+        <v>84000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8">
-        <v>5000</v>
+      <c r="B10" s="12">
+        <v>50200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
-        <v>4000</v>
+      <c r="B11" s="12">
+        <v>49000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="12">
         <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8">
-        <v>12000</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="12">
+        <v>550000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8">
-        <v>5000</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="12">
+        <v>192500</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8">
-        <v>8000</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="12">
+        <v>58500</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8">
-        <v>9500</v>
+        <v>10</v>
+      </c>
+      <c r="B16" s="12">
+        <v>95200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="8">
-        <v>144500</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="12">
+        <v>112400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1826300</v>
       </c>
     </row>
   </sheetData>
@@ -6046,6 +7126,20 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AAE757-27AB-42C1-9D43-981C0AC844F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781FF4E-D63F-4258-A19C-BF14D2E6AC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A0C37-C22C-4222-B966-D9D76739B7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,15 @@
   <si>
     <t>Pivot Tables</t>
   </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>=SUMIFS(...)</t>
+  </si>
 </sst>
 </file>
 
@@ -326,6 +335,588 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Personal_Budget_Tracker.xlsx]Pivot Table!PivotTable2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Table'!$D$6:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$E$6:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>434500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>446700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>444800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>435300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>438900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>457300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4C0-4CA2-8387-9EBFA23DA84B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1494,7 +2085,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2017,6 +3167,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72B4026-7924-A523-87C1-7296364BE4C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3215,7 +4406,133 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC34DA6F-526E-4090-9439-79B265E1D230}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="D5:E18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A5:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3317,7 +4634,7 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="39">
+  <chartFormats count="26">
     <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3464,159 +4781,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="13"/>
           </reference>
         </references>
       </pivotArea>
@@ -4067,7 +5231,7 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6798,16 +7962,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6893,43 +8058,88 @@
       <c r="A13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15"/>
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16"/>
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <f>B2-C2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17"/>
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19"/>
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21"/>
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22"/>
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23"/>
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24"/>
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25"/>
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26"/>
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27"/>
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28"/>
@@ -6981,14 +8191,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB3BE5B-0E50-446A-93DC-BE7A34E160B7}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -7007,6 +8219,12 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -7015,6 +8233,12 @@
       <c r="B5" t="s">
         <v>44</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -7023,6 +8247,12 @@
       <c r="B6" s="12">
         <v>96500</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>434500</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -7031,6 +8261,12 @@
       <c r="B7" s="12">
         <v>368000</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12">
+        <v>434500</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -7039,6 +8275,12 @@
       <c r="B8" s="12">
         <v>120000</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12">
+        <v>433000</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -7047,6 +8289,12 @@
       <c r="B9" s="12">
         <v>84000</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="12">
+        <v>440700</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -7055,6 +8303,12 @@
       <c r="B10" s="12">
         <v>50200</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12">
+        <v>446700</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -7063,6 +8317,12 @@
       <c r="B11" s="12">
         <v>49000</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="12">
+        <v>430000</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -7071,6 +8331,12 @@
       <c r="B12" s="12">
         <v>50000</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="12">
+        <v>442100</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -7079,6 +8345,12 @@
       <c r="B13" s="12">
         <v>550000</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12">
+        <v>444800</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
@@ -7087,6 +8359,12 @@
       <c r="B14" s="12">
         <v>192500</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="12">
+        <v>435300</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
@@ -7095,6 +8373,12 @@
       <c r="B15" s="12">
         <v>58500</v>
       </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="12">
+        <v>435500</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
@@ -7103,21 +8387,39 @@
       <c r="B16" s="12">
         <v>95200</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="12">
+        <v>438900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="12">
         <v>112400</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12">
+        <v>457300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="12">
         <v>1826300</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5273300</v>
       </c>
     </row>
   </sheetData>
@@ -7125,7 +8427,8 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -2,22 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A0C37-C22C-4222-B966-D9D76739B7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EEAF6F-4CBC-43EF-801F-055361833DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
-    <sheet name="Pivot Table" sheetId="4" r:id="rId3"/>
+    <sheet name="Tables" sheetId="4" r:id="rId3"/>
     <sheet name="Dahboard" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Tables!$A$22:$A$33</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tables!$B$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tables!$B$22:$B$33</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Tables!$C$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tables!$C$22:$C$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Tables!$D$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tables!$D$22:$D$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="2" r:id="rId5"/>
@@ -62,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -199,16 +208,13 @@
     <t>Sum of Amount</t>
   </si>
   <si>
-    <t>Pivot Tables</t>
-  </si>
-  <si>
     <t>(All)</t>
   </si>
   <si>
     <t>Savings</t>
   </si>
   <si>
-    <t>=SUMIFS(...)</t>
+    <t>Tables</t>
   </si>
 </sst>
 </file>
@@ -348,589 +354,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Personal_Budget_Tracker.xlsx]Pivot Table!PivotTable2</c:name>
-    <c:fmtId val="1"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pivot Table'!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pivot Table'!$D$6:$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>January</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>February</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>December</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pivot Table'!$E$6:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>434500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>434500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>433000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>440700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>446700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>430000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>442100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>444800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>435300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>435500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>438900</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>457300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B4C0-4CA2-8387-9EBFA23DA84B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Personal_Budget_Tracker.xlsx]Pivot Table!PivotTable7</c:name>
+    <c:name>[Personal_Budget_Tracker.xlsx]Tables!PivotTable7</c:name>
     <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
@@ -1523,7 +947,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot Table'!$B$5</c:f>
+              <c:f>Tables!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1842,7 +1266,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$6:$A$18</c:f>
+              <c:f>Tables!$A$6:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1886,7 +1310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$6:$B$18</c:f>
+              <c:f>Tables!$B$6:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2042,6 +1466,616 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$A$22:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$B$22:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>285000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>289000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>295000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8899-4C05-883D-17AA26C30413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$A$22:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$C$22:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>144500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8899-4C05-883D-17AA26C30413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$A$22:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$D$22:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>145500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8899-4C05-883D-17AA26C30413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="913728192"/>
+        <c:axId val="913728672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="913728192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913728672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="913728672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913728192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2645,7 +2679,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2702,7 +2736,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2753,13 +2787,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2770,19 +2797,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2820,7 +2840,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3167,47 +3187,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72B4026-7924-A523-87C1-7296364BE4C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3239,6 +3218,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1557B2CE-6B8E-4B5F-A1DE-BE3C5A8AB038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4634,157 +4651,7 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="26">
-    <chartFormat chart="6" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="13">
     <chartFormat chart="14" format="14" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5231,7 +5098,7 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7962,8 +7829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC12FA-3DAD-403A-AE0F-A6B2D94B8232}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7971,7 +7838,7 @@
     <col min="1" max="1" width="24" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
@@ -8024,7 +7891,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -8033,7 +7900,7 @@
       </c>
       <c r="B10" t="str">
         <f>TEXT(SUMIFS(BudgetData[Amount], BudgetData[Month], B8, BudgetData[Type], "Income"), "₦#,##0")</f>
-        <v>₦289,000</v>
+        <v>₦290,000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -8042,7 +7909,7 @@
       </c>
       <c r="B11" t="str">
         <f xml:space="preserve"> TEXT(SUMIFS(BudgetData[Amount], BudgetData[Month], B8, BudgetData[Type], "Expense"), "₦#,##0")</f>
-        <v>₦149,900</v>
+        <v>₦144,500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -8051,95 +7918,11 @@
       </c>
       <c r="B12" t="str">
         <f xml:space="preserve"> TEXT(VALUE(SUBSTITUTE(B10, "₦", "")) - VALUE(SUBSTITUTE(B11, "₦", "")), "₦#,##0")</f>
-        <v>₦139,100</v>
+        <v>₦145,500</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16">
-        <f>B2-C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28"/>
@@ -8189,10 +7972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB3BE5B-0E50-446A-93DC-BE7A34E160B7}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8205,7 +7988,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -8223,7 +8006,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -8420,6 +8203,224 @@
       </c>
       <c r="E18" s="12">
         <v>5273300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A22, BudgetData[Type], "Income")</f>
+        <v>290000</v>
+      </c>
+      <c r="C22">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A22, BudgetData[Type], "Expense")</f>
+        <v>144500</v>
+      </c>
+      <c r="D22">
+        <f xml:space="preserve"> B22 - C22</f>
+        <v>145500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A23, BudgetData[Type], "Income")</f>
+        <v>285000</v>
+      </c>
+      <c r="C23">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A23, BudgetData[Type], "Expense")</f>
+        <v>149500</v>
+      </c>
+      <c r="D23">
+        <f xml:space="preserve"> B23 - C23</f>
+        <v>135500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A24, BudgetData[Type], "Income")</f>
+        <v>280000</v>
+      </c>
+      <c r="C24">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A24, BudgetData[Type], "Expense")</f>
+        <v>153000</v>
+      </c>
+      <c r="D24">
+        <f xml:space="preserve"> B24 - C24</f>
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A25, BudgetData[Type], "Income")</f>
+        <v>287000</v>
+      </c>
+      <c r="C25">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A25, BudgetData[Type], "Expense")</f>
+        <v>153700</v>
+      </c>
+      <c r="D25">
+        <f xml:space="preserve"> B25 - C25</f>
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A26, BudgetData[Type], "Income")</f>
+        <v>292000</v>
+      </c>
+      <c r="C26">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A26, BudgetData[Type], "Expense")</f>
+        <v>154700</v>
+      </c>
+      <c r="D26">
+        <f xml:space="preserve"> B26 - C26</f>
+        <v>137300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A27, BudgetData[Type], "Income")</f>
+        <v>280000</v>
+      </c>
+      <c r="C27">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A27, BudgetData[Type], "Expense")</f>
+        <v>150000</v>
+      </c>
+      <c r="D27">
+        <f xml:space="preserve"> B27 - C27</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A28, BudgetData[Type], "Income")</f>
+        <v>286000</v>
+      </c>
+      <c r="C28">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A28, BudgetData[Type], "Expense")</f>
+        <v>156100</v>
+      </c>
+      <c r="D28">
+        <f xml:space="preserve"> B28 - C28</f>
+        <v>129900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A29, BudgetData[Type], "Income")</f>
+        <v>291000</v>
+      </c>
+      <c r="C29">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A29, BudgetData[Type], "Expense")</f>
+        <v>153800</v>
+      </c>
+      <c r="D29">
+        <f xml:space="preserve"> B29 - C29</f>
+        <v>137200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A30, BudgetData[Type], "Income")</f>
+        <v>285000</v>
+      </c>
+      <c r="C30">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A30, BudgetData[Type], "Expense")</f>
+        <v>150300</v>
+      </c>
+      <c r="D30">
+        <f xml:space="preserve"> B30 - C30</f>
+        <v>134700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A31, BudgetData[Type], "Income")</f>
+        <v>287000</v>
+      </c>
+      <c r="C31">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A31, BudgetData[Type], "Expense")</f>
+        <v>148500</v>
+      </c>
+      <c r="D31">
+        <f xml:space="preserve"> B31 - C31</f>
+        <v>138500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A32, BudgetData[Type], "Income")</f>
+        <v>289000</v>
+      </c>
+      <c r="C32">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A32, BudgetData[Type], "Expense")</f>
+        <v>149900</v>
+      </c>
+      <c r="D32">
+        <f xml:space="preserve"> B32 - C32</f>
+        <v>139100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f>SUMIFS(BudgetData[Amount], BudgetData[Month], A33, BudgetData[Type], "Income")</f>
+        <v>295000</v>
+      </c>
+      <c r="C33">
+        <f xml:space="preserve"> SUMIFS(BudgetData[Amount], BudgetData[Month], A33, BudgetData[Type], "Expense")</f>
+        <v>162300</v>
+      </c>
+      <c r="D33">
+        <f xml:space="preserve"> B33 - C33</f>
+        <v>132700</v>
       </c>
     </row>
   </sheetData>
@@ -8428,7 +8429,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8436,8 +8436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AAE757-27AB-42C1-9D43-981C0AC844F6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EEAF6F-4CBC-43EF-801F-055361833DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5561B3-F202-4235-94E9-BE2BEF668AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,8 @@
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Tables" sheetId="4" r:id="rId3"/>
-    <sheet name="Dahboard" sheetId="5" r:id="rId4"/>
+    <sheet name="Charts" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Tables!$A$22:$A$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tables!$B$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tables!$B$22:$B$33</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Tables!$C$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tables!$C$22:$C$33</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Tables!$D$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Tables!$D$22:$D$33</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="2" r:id="rId5"/>
@@ -71,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -378,10 +369,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
               <a:t>Expense Breakdown by Category</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1484,6 +1475,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Monthly Income vs Expenses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1635,7 +1652,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8899-4C05-883D-17AA26C30413}"/>
+              <c16:uniqueId val="{00000000-6E88-4119-AE49-A035238D19D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1754,126 +1771,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8899-4C05-883D-17AA26C30413}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tables!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Savings</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tables!$A$22:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>January</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>February</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>December</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tables!$D$22:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>145500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>135500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>133300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>129900</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>137200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>138500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>139100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>132700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8899-4C05-883D-17AA26C30413}"/>
+              <c16:uniqueId val="{00000001-6E88-4119-AE49-A035238D19D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1885,12 +1783,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="913728192"/>
-        <c:axId val="913728672"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="998805680"/>
+        <c:axId val="998808560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="913728192"/>
+        <c:axId val="998805680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913728672"/>
+        <c:crossAx val="998808560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1941,7 +1840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="913728672"/>
+        <c:axId val="998808560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +1891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913728192"/>
+        <c:crossAx val="998805680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2079,6 +1978,375 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Monthly Savings</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$F$22:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$G$22:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>145500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3020-4EC6-B6D6-3C03A0DB449D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="913742640"/>
+        <c:axId val="1122605200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="913742640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122605200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1122605200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913742640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2120,6 +2388,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2679,7 +2987,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2883,23 +3191,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3004,8 +3311,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3137,12 +3444,315 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3151,6 +3761,218 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3225,23 +4047,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1557B2CE-6B8E-4B5F-A1DE-BE3C5A8AB038}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB79CDA-3FD4-458F-8EDE-4066E015A71E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,6 +4078,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709A6CF1-4E3B-4930-878E-4732FD5EFD28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7972,16 +8832,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB3BE5B-0E50-446A-93DC-BE7A34E160B7}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -8177,7 +9038,7 @@
         <v>438900</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -8191,7 +9052,7 @@
         <v>457300</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -8205,7 +9066,7 @@
         <v>5273300</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -8218,8 +9079,14 @@
       <c r="D21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -8235,8 +9102,14 @@
         <f xml:space="preserve"> B22 - C22</f>
         <v>145500</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>145500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8252,8 +9125,14 @@
         <f xml:space="preserve"> B23 - C23</f>
         <v>135500</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>135500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8269,8 +9148,14 @@
         <f xml:space="preserve"> B24 - C24</f>
         <v>127000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8286,8 +9171,14 @@
         <f xml:space="preserve"> B25 - C25</f>
         <v>133300</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8303,8 +9194,14 @@
         <f xml:space="preserve"> B26 - C26</f>
         <v>137300</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>137300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8320,8 +9217,14 @@
         <f xml:space="preserve"> B27 - C27</f>
         <v>130000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8337,8 +9240,14 @@
         <f xml:space="preserve"> B28 - C28</f>
         <v>129900</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>129900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8354,8 +9263,14 @@
         <f xml:space="preserve"> B29 - C29</f>
         <v>137200</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>137200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8371,8 +9286,14 @@
         <f xml:space="preserve"> B30 - C30</f>
         <v>134700</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>134700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -8388,8 +9309,14 @@
         <f xml:space="preserve"> B31 - C31</f>
         <v>138500</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>138500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -8405,8 +9332,14 @@
         <f xml:space="preserve"> B32 - C32</f>
         <v>139100</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>139100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -8420,6 +9353,12 @@
       </c>
       <c r="D33">
         <f xml:space="preserve"> B33 - C33</f>
+        <v>132700</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33">
         <v>132700</v>
       </c>
     </row>
@@ -8436,8 +9375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AAE757-27AB-42C1-9D43-981C0AC844F6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5561B3-F202-4235-94E9-BE2BEF668AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06093D55-8ABB-4374-A857-5CF8DE5CD553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Tables" sheetId="4" r:id="rId3"/>
-    <sheet name="Charts" sheetId="5" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -346,7 +346,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Personal_Budget_Tracker.xlsx]Tables!PivotTable7</c:name>
-    <c:fmtId val="14"/>
+    <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -428,9 +428,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -462,16 +459,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -487,9 +474,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -521,16 +505,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -714,9 +688,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -748,16 +719,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -928,6 +889,447 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -963,7 +1365,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000001-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -983,7 +1385,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000003-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1003,7 +1405,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000005-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1023,7 +1425,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000007-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1043,7 +1445,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000009-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1063,7 +1465,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{0000000B-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1085,7 +1487,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{0000000D-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1107,7 +1509,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{0000000F-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1129,7 +1531,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000011-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1151,7 +1553,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000013-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1173,7 +1575,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000015-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1195,7 +1597,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+                <c16:uniqueId val="{00000017-AAC1-4D73-9691-A92500E27199}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1346,7 +1748,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-D736-4FCE-B5BD-EB1B0476FFE0}"/>
+              <c16:uniqueId val="{00000018-AAC1-4D73-9691-A92500E27199}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1414,15 +1816,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg2"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1652,7 +2049,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E88-4119-AE49-A035238D19D0}"/>
+              <c16:uniqueId val="{00000000-F452-4456-BAA7-F3EBC2683893}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1771,7 +2168,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E88-4119-AE49-A035238D19D0}"/>
+              <c16:uniqueId val="{00000001-F452-4456-BAA7-F3EBC2683893}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1947,15 +2344,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg2"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2078,7 +2470,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2172,11 +2576,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3020-4EC6-B6D6-3C03A0DB449D}"/>
+              <c16:uniqueId val="{00000000-175A-4E48-ACAE-61E51D895D42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2184,6 +2589,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="913742640"/>
         <c:axId val="1122605200"/>
@@ -2316,7 +2722,520 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg2"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Income vs Expenses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$A$22:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$B$22:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>285000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>289000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>295000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C263-4EC5-B870-04702E2B450E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$A$22:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$C$22:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>144500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C263-4EC5-B870-04702E2B450E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1129561232"/>
+        <c:axId val="1129548752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1129561232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1129548752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1129548752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1129561232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg2"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2467,6 +3386,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4005,6 +4964,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4012,20 +5476,92 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35278</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A5EEB1-5484-B698-1485-C2D6430FD545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="9743722" cy="6342944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>199046</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219B272A-609F-4F75-A7BF-1C3D75063B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB739261-FCC4-4C64-8036-D681B49F4039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4047,23 +5583,104 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381727</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133101</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C743D8-CD50-915B-6F3E-67ACDF089593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2824035" y="13923"/>
+          <a:ext cx="4635989" cy="442546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SIMPLE PERSONAL BUGDET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> DASHBOARD</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>120158</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>425934</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB79CDA-3FD4-458F-8EDE-4066E015A71E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414A5995-0DD7-4C10-9D4D-C534D9EDABB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4086,22 +5703,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>186833</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>491633</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>128217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709A6CF1-4E3B-4930-878E-4732FD5EFD28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F42BE3-880C-458D-9568-ACB665E9A3D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4116,6 +5733,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134323</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>432284</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129929</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0375BB9-CF51-494A-B6E0-75062E3281F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5385,17 +7040,6 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5409,7 +7053,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A5:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5512,7 +7156,7 @@
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="13">
-    <chartFormat chart="14" format="14" series="1">
+    <chartFormat chart="16" format="40" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5521,7 +7165,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="15">
+    <chartFormat chart="16" format="41">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5533,7 +7177,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="16">
+    <chartFormat chart="16" format="42">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5545,7 +7189,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="17">
+    <chartFormat chart="16" format="43">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5557,7 +7201,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="18">
+    <chartFormat chart="16" format="44">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5569,7 +7213,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="19">
+    <chartFormat chart="16" format="45">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5581,7 +7225,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="20">
+    <chartFormat chart="16" format="46">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5593,7 +7237,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="21">
+    <chartFormat chart="16" format="47">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5605,7 +7249,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="22">
+    <chartFormat chart="16" format="48">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5617,7 +7261,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="23">
+    <chartFormat chart="16" format="49">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5629,7 +7273,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="24">
+    <chartFormat chart="16" format="50">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5641,7 +7285,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="25">
+    <chartFormat chart="16" format="51">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5653,7 +7297,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="26">
+    <chartFormat chart="16" format="52">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5957,7 +7601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -8835,7 +10479,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9372,11 +11016,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AAE757-27AB-42C1-9D43-981C0AC844F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D02AC40-F0EB-46EF-8A8F-6E6E36E19341}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
+++ b/Personal_Budget_Tracker/Personal_Budget_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Personal_Budget_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06093D55-8ABB-4374-A857-5CF8DE5CD553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB57652-B650-4B85-8B4B-E5D964B79EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly_Tracker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Sum of Amount</t>
   </si>
   <si>
-    <t>(All)</t>
-  </si>
-  <si>
     <t>Savings</t>
   </si>
   <si>
@@ -215,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₦-46A]#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -293,6 +298,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2451,7 +2457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tables!$G$21</c:f>
+              <c:f>Tables!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2486,7 +2492,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$F$22:$F$33</c:f>
+              <c:f>Tables!$D$6:$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2530,7 +2536,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$G$22:$G$33</c:f>
+              <c:f>Tables!$E$6:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5498,7 +5504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1"/>
-          <a:ext cx="9743722" cy="6342944"/>
+          <a:ext cx="9844933" cy="6433936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5586,13 +5592,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>381727</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13923</xdr:rowOff>
+      <xdr:rowOff>57715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133101</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>90123</xdr:rowOff>
+      <xdr:rowOff>133915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5607,8 +5613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2824035" y="13923"/>
-          <a:ext cx="4635989" cy="442546"/>
+          <a:off x="2834141" y="57715"/>
+          <a:ext cx="4656201" cy="448441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6938,122 +6944,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC34DA6F-526E-4090-9439-79B265E1D230}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="D5:E18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="5">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="8"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B38426B-23F6-4D5C-B680-40DE664A517F}" name="PivotTable7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A5:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -10476,10 +10367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB3BE5B-0E50-446A-93DC-BE7A34E160B7}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10493,7 +10384,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -10507,12 +10398,6 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -10521,11 +10406,11 @@
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>42</v>
+      <c r="D5" t="s">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -10535,11 +10420,11 @@
       <c r="B6" s="12">
         <v>96500</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12">
-        <v>434500</v>
+      <c r="E6">
+        <v>145500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -10549,11 +10434,11 @@
       <c r="B7" s="12">
         <v>368000</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12">
-        <v>434500</v>
+      <c r="E7">
+        <v>135500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -10563,11 +10448,11 @@
       <c r="B8" s="12">
         <v>120000</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12">
-        <v>433000</v>
+      <c r="E8">
+        <v>127000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -10577,11 +10462,11 @@
       <c r="B9" s="12">
         <v>84000</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="12">
-        <v>440700</v>
+      <c r="E9">
+        <v>133300</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -10591,11 +10476,11 @@
       <c r="B10" s="12">
         <v>50200</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12">
-        <v>446700</v>
+      <c r="E10">
+        <v>137300</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -10605,11 +10490,11 @@
       <c r="B11" s="12">
         <v>49000</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="12">
-        <v>430000</v>
+      <c r="E11">
+        <v>130000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -10619,11 +10504,11 @@
       <c r="B12" s="12">
         <v>50000</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12">
-        <v>442100</v>
+      <c r="E12">
+        <v>129900</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -10633,11 +10518,11 @@
       <c r="B13" s="12">
         <v>550000</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="12">
-        <v>444800</v>
+      <c r="E13">
+        <v>137200</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -10647,11 +10532,11 @@
       <c r="B14" s="12">
         <v>192500</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="12">
-        <v>435300</v>
+      <c r="E14">
+        <v>134700</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -10661,11 +10546,11 @@
       <c r="B15" s="12">
         <v>58500</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="12">
-        <v>435500</v>
+      <c r="E15">
+        <v>138500</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -10675,62 +10560,50 @@
       <c r="B16" s="12">
         <v>95200</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="12">
-        <v>438900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>139100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="12">
         <v>112400</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="12">
-        <v>457300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>132700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="12">
         <v>1826300</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="12">
-        <v>5273300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -10746,14 +10619,8 @@
         <f xml:space="preserve"> B22 - C22</f>
         <v>145500</v>
       </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>145500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -10769,14 +10636,8 @@
         <f xml:space="preserve"> B23 - C23</f>
         <v>135500</v>
       </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>135500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -10792,14 +10653,8 @@
         <f xml:space="preserve"> B24 - C24</f>
         <v>127000</v>
       </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24">
-        <v>127000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -10815,14 +10670,8 @@
         <f xml:space="preserve"> B25 - C25</f>
         <v>133300</v>
       </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25">
-        <v>133300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -10838,14 +10687,8 @@
         <f xml:space="preserve"> B26 - C26</f>
         <v>137300</v>
       </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <v>137300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10861,14 +10704,8 @@
         <f xml:space="preserve"> B27 - C27</f>
         <v>130000</v>
       </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10884,14 +10721,8 @@
         <f xml:space="preserve"> B28 - C28</f>
         <v>129900</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <v>129900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10907,14 +10738,8 @@
         <f xml:space="preserve"> B29 - C29</f>
         <v>137200</v>
       </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29">
-        <v>137200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10930,14 +10755,8 @@
         <f xml:space="preserve"> B30 - C30</f>
         <v>134700</v>
       </c>
-      <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30">
-        <v>134700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -10953,14 +10772,8 @@
         <f xml:space="preserve"> B31 - C31</f>
         <v>138500</v>
       </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31">
-        <v>138500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -10976,14 +10789,8 @@
         <f xml:space="preserve"> B32 - C32</f>
         <v>139100</v>
       </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32">
-        <v>139100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -10997,12 +10804,6 @@
       </c>
       <c r="D33">
         <f xml:space="preserve"> B33 - C33</f>
-        <v>132700</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33">
         <v>132700</v>
       </c>
     </row>
@@ -11011,7 +10812,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11019,8 +10820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D02AC40-F0EB-46EF-8A8F-6E6E36E19341}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
